--- a/test_data/test_data_2.xlsx
+++ b/test_data/test_data_2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qlrqo\Documents\전공 과목\전프 (CS408)\ChatSummarizer\test_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ehgus\Desktop\ChatSummarizer\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6980"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6984" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1580,17 +1580,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="63.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" customWidth="1"/>
+    <col min="1" max="1" width="63.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>396</v>
       </c>
@@ -1601,18 +1601,18 @@
         <v>398</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1623,29 +1623,29 @@
         <v>377</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1653,15 +1653,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1733,15 +1733,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1757,15 +1757,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1773,23 +1773,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1797,15 +1797,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1877,15 +1877,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1893,15 +1893,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -1957,15 +1957,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -1973,39 +1973,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -2029,23 +2029,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -2053,15 +2053,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -2104,6 +2104,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2111,17 +2112,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="104" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>396</v>
       </c>
@@ -2132,7 +2133,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -2143,18 +2144,18 @@
         <v>383</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>62</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -2165,7 +2166,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>64</v>
       </c>
@@ -2176,7 +2177,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -2184,7 +2185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>66</v>
       </c>
@@ -2192,7 +2193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>67</v>
       </c>
@@ -2200,7 +2201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -2208,7 +2209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>69</v>
       </c>
@@ -2216,7 +2217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -2224,7 +2225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>71</v>
       </c>
@@ -2232,7 +2233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>72</v>
       </c>
@@ -2240,7 +2241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>73</v>
       </c>
@@ -2248,7 +2249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>74</v>
       </c>
@@ -2256,7 +2257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>75</v>
       </c>
@@ -2264,7 +2265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>76</v>
       </c>
@@ -2272,7 +2273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -2280,7 +2281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>78</v>
       </c>
@@ -2288,7 +2289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>79</v>
       </c>
@@ -2296,7 +2297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>80</v>
       </c>
@@ -2304,7 +2305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>81</v>
       </c>
@@ -2312,7 +2313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>82</v>
       </c>
@@ -2320,7 +2321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>83</v>
       </c>
@@ -2328,7 +2329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>84</v>
       </c>
@@ -2336,7 +2337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>85</v>
       </c>
@@ -2344,7 +2345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>86</v>
       </c>
@@ -2352,7 +2353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>87</v>
       </c>
@@ -2360,7 +2361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>88</v>
       </c>
@@ -2368,7 +2369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>89</v>
       </c>
@@ -2376,15 +2377,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>90</v>
       </c>
       <c r="B31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>91</v>
       </c>
@@ -2392,7 +2393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>92</v>
       </c>
@@ -2400,7 +2401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>93</v>
       </c>
@@ -2408,7 +2409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>94</v>
       </c>
@@ -2416,15 +2417,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>95</v>
       </c>
       <c r="B36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>96</v>
       </c>
@@ -2432,7 +2433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>97</v>
       </c>
@@ -2440,7 +2441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>98</v>
       </c>
@@ -2448,7 +2449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>99</v>
       </c>
@@ -2456,7 +2457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>100</v>
       </c>
@@ -2464,7 +2465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>101</v>
       </c>
@@ -2472,7 +2473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>102</v>
       </c>
@@ -2480,7 +2481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>103</v>
       </c>
@@ -2488,7 +2489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>104</v>
       </c>
@@ -2496,7 +2497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>105</v>
       </c>
@@ -2504,7 +2505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>106</v>
       </c>
@@ -2512,7 +2513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>107</v>
       </c>
@@ -2520,15 +2521,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>108</v>
       </c>
       <c r="B49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>109</v>
       </c>
@@ -2536,7 +2537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>110</v>
       </c>
@@ -2544,7 +2545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>111</v>
       </c>
@@ -2552,7 +2553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>112</v>
       </c>
@@ -2560,7 +2561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>113</v>
       </c>
@@ -2568,7 +2569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>114</v>
       </c>
@@ -2576,7 +2577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>115</v>
       </c>
@@ -2584,7 +2585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>116</v>
       </c>
@@ -2592,7 +2593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>117</v>
       </c>
@@ -2600,7 +2601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>118</v>
       </c>
@@ -2608,7 +2609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>119</v>
       </c>
@@ -2616,7 +2617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>120</v>
       </c>
@@ -2624,15 +2625,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>121</v>
       </c>
       <c r="B62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>122</v>
       </c>
@@ -2640,7 +2641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>123</v>
       </c>
@@ -2648,7 +2649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>124</v>
       </c>
@@ -2656,7 +2657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>125</v>
       </c>
@@ -2664,7 +2665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>126</v>
       </c>
@@ -2672,7 +2673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>127</v>
       </c>
@@ -2680,7 +2681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>128</v>
       </c>
@@ -2688,7 +2689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>129</v>
       </c>
@@ -2696,7 +2697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>130</v>
       </c>
@@ -2704,7 +2705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>131</v>
       </c>
@@ -2712,7 +2713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>132</v>
       </c>
@@ -2720,7 +2721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>133</v>
       </c>
@@ -2728,7 +2729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>134</v>
       </c>
@@ -2746,17 +2747,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C142"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="83.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="83.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>396</v>
       </c>
@@ -2767,7 +2768,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>135</v>
       </c>
@@ -2778,7 +2779,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>136</v>
       </c>
@@ -2789,7 +2790,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>137</v>
       </c>
@@ -2800,7 +2801,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>138</v>
       </c>
@@ -2811,7 +2812,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>139</v>
       </c>
@@ -2819,7 +2820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>140</v>
       </c>
@@ -2827,7 +2828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>141</v>
       </c>
@@ -2835,7 +2836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>142</v>
       </c>
@@ -2843,7 +2844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>143</v>
       </c>
@@ -2851,7 +2852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>144</v>
       </c>
@@ -2859,7 +2860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>145</v>
       </c>
@@ -2867,7 +2868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>146</v>
       </c>
@@ -2875,7 +2876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>147</v>
       </c>
@@ -2883,7 +2884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>148</v>
       </c>
@@ -2891,15 +2892,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>149</v>
       </c>
       <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>150</v>
       </c>
@@ -2907,7 +2908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>151</v>
       </c>
@@ -2915,7 +2916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>152</v>
       </c>
@@ -2923,23 +2924,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>153</v>
       </c>
       <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>154</v>
       </c>
       <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>155</v>
       </c>
@@ -2947,7 +2948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>156</v>
       </c>
@@ -2955,7 +2956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>157</v>
       </c>
@@ -2963,7 +2964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>158</v>
       </c>
@@ -2971,7 +2972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>159</v>
       </c>
@@ -2979,15 +2980,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>160</v>
       </c>
       <c r="B27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>161</v>
       </c>
@@ -2995,7 +2996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>162</v>
       </c>
@@ -3003,7 +3004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>163</v>
       </c>
@@ -3011,15 +3012,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>164</v>
       </c>
       <c r="B31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>165</v>
       </c>
@@ -3027,7 +3028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>166</v>
       </c>
@@ -3035,7 +3036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>167</v>
       </c>
@@ -3043,7 +3044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>168</v>
       </c>
@@ -3051,7 +3052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>169</v>
       </c>
@@ -3059,7 +3060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>170</v>
       </c>
@@ -3067,7 +3068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>171</v>
       </c>
@@ -3075,7 +3076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>172</v>
       </c>
@@ -3083,7 +3084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>173</v>
       </c>
@@ -3091,55 +3092,55 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>174</v>
       </c>
       <c r="B41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>175</v>
       </c>
       <c r="B42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>176</v>
       </c>
       <c r="B43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>177</v>
       </c>
       <c r="B44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>178</v>
       </c>
       <c r="B45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>179</v>
       </c>
       <c r="B46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>180</v>
       </c>
@@ -3147,7 +3148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>181</v>
       </c>
@@ -3155,7 +3156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>182</v>
       </c>
@@ -3163,15 +3164,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>183</v>
       </c>
       <c r="B50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>184</v>
       </c>
@@ -3179,7 +3180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>185</v>
       </c>
@@ -3187,7 +3188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>186</v>
       </c>
@@ -3195,7 +3196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>187</v>
       </c>
@@ -3203,31 +3204,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>188</v>
       </c>
       <c r="B55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>189</v>
       </c>
       <c r="B56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>190</v>
       </c>
       <c r="B57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>191</v>
       </c>
@@ -3235,7 +3236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>192</v>
       </c>
@@ -3243,23 +3244,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>193</v>
       </c>
       <c r="B60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>194</v>
       </c>
       <c r="B61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>195</v>
       </c>
@@ -3267,7 +3268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>196</v>
       </c>
@@ -3275,7 +3276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>197</v>
       </c>
@@ -3283,7 +3284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>198</v>
       </c>
@@ -3291,7 +3292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>199</v>
       </c>
@@ -3299,7 +3300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>200</v>
       </c>
@@ -3307,7 +3308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>201</v>
       </c>
@@ -3315,7 +3316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>202</v>
       </c>
@@ -3323,7 +3324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>203</v>
       </c>
@@ -3331,7 +3332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>204</v>
       </c>
@@ -3339,7 +3340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>205</v>
       </c>
@@ -3347,7 +3348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>206</v>
       </c>
@@ -3355,7 +3356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>207</v>
       </c>
@@ -3363,7 +3364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>208</v>
       </c>
@@ -3371,7 +3372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>209</v>
       </c>
@@ -3379,7 +3380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>210</v>
       </c>
@@ -3387,7 +3388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>211</v>
       </c>
@@ -3395,7 +3396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>212</v>
       </c>
@@ -3403,7 +3404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>213</v>
       </c>
@@ -3411,7 +3412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>214</v>
       </c>
@@ -3419,7 +3420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>215</v>
       </c>
@@ -3427,7 +3428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>213</v>
       </c>
@@ -3435,7 +3436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>216</v>
       </c>
@@ -3443,7 +3444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>217</v>
       </c>
@@ -3451,7 +3452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>218</v>
       </c>
@@ -3459,7 +3460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>219</v>
       </c>
@@ -3467,7 +3468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>220</v>
       </c>
@@ -3475,7 +3476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>221</v>
       </c>
@@ -3483,7 +3484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>222</v>
       </c>
@@ -3491,7 +3492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>223</v>
       </c>
@@ -3499,7 +3500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>223</v>
       </c>
@@ -3507,7 +3508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>223</v>
       </c>
@@ -3515,7 +3516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>224</v>
       </c>
@@ -3523,7 +3524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>225</v>
       </c>
@@ -3531,7 +3532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>226</v>
       </c>
@@ -3539,7 +3540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>227</v>
       </c>
@@ -3547,7 +3548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>228</v>
       </c>
@@ -3555,7 +3556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>229</v>
       </c>
@@ -3563,7 +3564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>230</v>
       </c>
@@ -3571,7 +3572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>231</v>
       </c>
@@ -3579,7 +3580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>232</v>
       </c>
@@ -3587,7 +3588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>233</v>
       </c>
@@ -3595,7 +3596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>234</v>
       </c>
@@ -3603,7 +3604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>235</v>
       </c>
@@ -3611,7 +3612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>236</v>
       </c>
@@ -3619,7 +3620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>237</v>
       </c>
@@ -3627,7 +3628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>238</v>
       </c>
@@ -3635,7 +3636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>239</v>
       </c>
@@ -3643,15 +3644,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>240</v>
       </c>
       <c r="B110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>241</v>
       </c>
@@ -3659,7 +3660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>242</v>
       </c>
@@ -3667,7 +3668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>243</v>
       </c>
@@ -3675,7 +3676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>244</v>
       </c>
@@ -3683,7 +3684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>245</v>
       </c>
@@ -3691,7 +3692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
         <v>246</v>
       </c>
@@ -3699,15 +3700,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
         <v>247</v>
       </c>
       <c r="B117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
         <v>248</v>
       </c>
@@ -3715,7 +3716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
         <v>249</v>
       </c>
@@ -3723,7 +3724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
         <v>250</v>
       </c>
@@ -3731,7 +3732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
         <v>251</v>
       </c>
@@ -3739,31 +3740,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
         <v>252</v>
       </c>
       <c r="B122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
         <v>253</v>
       </c>
       <c r="B123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
         <v>254</v>
       </c>
       <c r="B124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
         <v>255</v>
       </c>
@@ -3771,15 +3772,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
         <v>256</v>
       </c>
       <c r="B126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
         <v>257</v>
       </c>
@@ -3787,7 +3788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
         <v>258</v>
       </c>
@@ -3795,15 +3796,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
         <v>259</v>
       </c>
       <c r="B129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
         <v>260</v>
       </c>
@@ -3811,7 +3812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
         <v>261</v>
       </c>
@@ -3819,7 +3820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
         <v>262</v>
       </c>
@@ -3827,7 +3828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
         <v>263</v>
       </c>
@@ -3835,7 +3836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
         <v>264</v>
       </c>
@@ -3843,7 +3844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
         <v>265</v>
       </c>
@@ -3851,23 +3852,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
         <v>266</v>
       </c>
       <c r="B136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
         <v>267</v>
       </c>
       <c r="B137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
         <v>268</v>
       </c>
@@ -3875,7 +3876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
         <v>269</v>
       </c>
@@ -3883,7 +3884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
         <v>270</v>
       </c>
@@ -3891,7 +3892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
         <v>271</v>
       </c>
@@ -3899,7 +3900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
         <v>272</v>
       </c>
@@ -3918,15 +3919,15 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="143.25" customWidth="1"/>
+    <col min="1" max="1" width="143.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>396</v>
       </c>
@@ -3937,7 +3938,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>273</v>
       </c>
@@ -3948,18 +3949,18 @@
         <v>395</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>274</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>275</v>
       </c>
@@ -3970,7 +3971,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>276</v>
       </c>
@@ -3981,7 +3982,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>277</v>
       </c>
@@ -3989,7 +3990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>278</v>
       </c>
@@ -3997,7 +3998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>279</v>
       </c>
@@ -4005,7 +4006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>280</v>
       </c>
@@ -4013,7 +4014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>281</v>
       </c>
@@ -4021,7 +4022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>282</v>
       </c>
@@ -4029,7 +4030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>283</v>
       </c>
@@ -4037,7 +4038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>284</v>
       </c>
@@ -4045,7 +4046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>285</v>
       </c>
@@ -4053,7 +4054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>286</v>
       </c>
@@ -4061,7 +4062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>287</v>
       </c>
@@ -4069,7 +4070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>288</v>
       </c>
@@ -4077,7 +4078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>289</v>
       </c>
@@ -4085,7 +4086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>290</v>
       </c>
@@ -4093,7 +4094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>291</v>
       </c>
@@ -4112,16 +4113,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="105.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="105.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>396</v>
       </c>
@@ -4132,7 +4133,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>292</v>
       </c>
@@ -4143,7 +4144,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>293</v>
       </c>
@@ -4154,7 +4155,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>294</v>
       </c>
@@ -4165,7 +4166,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>295</v>
       </c>
@@ -4176,15 +4177,15 @@
         <v>394</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>296</v>
       </c>
       <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>297</v>
       </c>
@@ -4192,7 +4193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>298</v>
       </c>
@@ -4200,7 +4201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>299</v>
       </c>
@@ -4208,15 +4209,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>300</v>
       </c>
       <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>301</v>
       </c>
@@ -4224,7 +4225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>302</v>
       </c>
@@ -4232,15 +4233,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>303</v>
       </c>
       <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>304</v>
       </c>
@@ -4248,15 +4249,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>305</v>
       </c>
       <c r="B15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>306</v>
       </c>
@@ -4264,7 +4265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>307</v>
       </c>
@@ -4272,7 +4273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>308</v>
       </c>
@@ -4280,7 +4281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>309</v>
       </c>
@@ -4288,7 +4289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>310</v>
       </c>
@@ -4296,7 +4297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>311</v>
       </c>
@@ -4304,7 +4305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>312</v>
       </c>
@@ -4312,15 +4313,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>313</v>
       </c>
       <c r="B23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>314</v>
       </c>
@@ -4328,15 +4329,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>315</v>
       </c>
       <c r="B25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>316</v>
       </c>
@@ -4344,15 +4345,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>317</v>
       </c>
       <c r="B27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>318</v>
       </c>
@@ -4360,15 +4361,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>319</v>
       </c>
       <c r="B29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>320</v>
       </c>
@@ -4376,7 +4377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>321</v>
       </c>
@@ -4384,7 +4385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>322</v>
       </c>
@@ -4392,7 +4393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>323</v>
       </c>
@@ -4400,15 +4401,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>324</v>
       </c>
       <c r="B34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>325</v>
       </c>
@@ -4416,7 +4417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>326</v>
       </c>
@@ -4424,15 +4425,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>327</v>
       </c>
       <c r="B37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>328</v>
       </c>
@@ -4440,7 +4441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>329</v>
       </c>
@@ -4448,15 +4449,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>330</v>
       </c>
       <c r="B40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>331</v>
       </c>
@@ -4464,15 +4465,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>332</v>
       </c>
       <c r="B42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>333</v>
       </c>
@@ -4480,15 +4481,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>334</v>
       </c>
       <c r="B44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>335</v>
       </c>
@@ -4496,7 +4497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>336</v>
       </c>
@@ -4504,7 +4505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>337</v>
       </c>
@@ -4512,7 +4513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>338</v>
       </c>
@@ -4520,7 +4521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>339</v>
       </c>
@@ -4528,7 +4529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>340</v>
       </c>
@@ -4536,7 +4537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>341</v>
       </c>
@@ -4544,15 +4545,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>342</v>
       </c>
       <c r="B52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>343</v>
       </c>
@@ -4574,14 +4575,14 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="63.4140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" customWidth="1"/>
+    <col min="1" max="1" width="63.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>344</v>
       </c>
@@ -4592,7 +4593,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>345</v>
       </c>
@@ -4606,7 +4607,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>346</v>
       </c>
@@ -4617,7 +4618,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>347</v>
       </c>
@@ -4628,7 +4629,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>348</v>
       </c>
@@ -4636,7 +4637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>349</v>
       </c>
@@ -4644,7 +4645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>350</v>
       </c>
@@ -4652,7 +4653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" ht="25.2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>351</v>
       </c>
@@ -4663,7 +4664,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>352</v>
       </c>
@@ -4674,7 +4675,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>353</v>
       </c>
@@ -4685,7 +4686,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>354</v>
       </c>
@@ -4696,7 +4697,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>355</v>
       </c>
@@ -4704,7 +4705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>356</v>
       </c>
@@ -4712,7 +4713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>357</v>
       </c>
@@ -4720,7 +4721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>358</v>
       </c>
@@ -4728,7 +4729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>359</v>
       </c>
@@ -4736,7 +4737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>360</v>
       </c>
@@ -4744,7 +4745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>361</v>
       </c>
@@ -4752,7 +4753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>362</v>
       </c>
@@ -4760,7 +4761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>363</v>
       </c>
@@ -4768,7 +4769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>364</v>
       </c>
@@ -4776,7 +4777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>365</v>
       </c>
@@ -4784,7 +4785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>366</v>
       </c>
